--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ex3.1.3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -198,15 +198,33 @@
     <t>group by DIN;</t>
   </si>
   <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>47092; 47135</t>
+  </si>
+  <si>
+    <t>Périodes</t>
+  </si>
+  <si>
+    <t>select '2017-01-01' as DATE_DEBUT,</t>
+  </si>
+  <si>
     <t>47092; 47135; 48222</t>
   </si>
   <si>
-    <t>Périodes</t>
+    <t xml:space="preserve">    '2017-12-31' as DATE_FIN,</t>
   </si>
   <si>
     <t>48222</t>
   </si>
   <si>
+    <t>where SMED_DAT_SERV between '2017-01-01' and '2017-12-31'</t>
+  </si>
+  <si>
     <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('47092', '47135', '48222')</t>
   </si>
   <si>
@@ -219,10 +237,28 @@
     <t>40</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('47092', '47135')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and (SMED_COD_SERV_1 not in ('1', 'AD', 'L', 'M', 'M1', 'M2', 'M3') or SMED_COD_SERV_1 is null)</t>
   </si>
   <si>
     <t xml:space="preserve">    and SMED_COD_CATG_LISTE_MED in ('03', '40', '41')</t>
@@ -580,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1439,43 +1475,43 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>2509210.59</v>
+        <v>2580496.29</v>
       </c>
       <c r="D2">
-        <v>3234110.49</v>
+        <v>2980251.98</v>
       </c>
       <c r="E2">
-        <v>5743321.0800000001</v>
+        <v>5560748.2699999996</v>
       </c>
       <c r="F2">
-        <v>31715</v>
+        <v>27288</v>
       </c>
       <c r="G2">
-        <v>464693</v>
+        <v>423673</v>
       </c>
       <c r="H2">
-        <v>9254069</v>
+        <v>8540084.5</v>
       </c>
       <c r="I2">
-        <v>8970089</v>
+        <v>8293615</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -1484,7 +1520,7 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
@@ -1496,45 +1532,45 @@
         <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>5947703.1900000004</v>
+        <v>2509210.59</v>
       </c>
       <c r="D3">
-        <v>3230736.93</v>
+        <v>3234110.49</v>
       </c>
       <c r="E3">
-        <v>9178440.1199999992</v>
+        <v>5743321.0800000001</v>
       </c>
       <c r="F3">
-        <v>32844</v>
+        <v>31715</v>
       </c>
       <c r="G3">
-        <v>463139</v>
+        <v>464693</v>
       </c>
       <c r="H3">
-        <v>9429750.0500000007</v>
+        <v>9254069</v>
       </c>
       <c r="I3">
-        <v>8607256</v>
+        <v>8970089</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
         <v>36</v>
@@ -1543,12 +1579,48 @@
         <v>33</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>5947703.1900000004</v>
+      </c>
+      <c r="D4">
+        <v>3230736.93</v>
+      </c>
+      <c r="E4">
+        <v>9178440.1199999992</v>
+      </c>
+      <c r="F4">
+        <v>32844</v>
+      </c>
+      <c r="G4">
+        <v>463139</v>
+      </c>
+      <c r="H4">
+        <v>9429750.0500000007</v>
+      </c>
+      <c r="I4">
+        <v>8607256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="s">
         <v>38</v>
@@ -1591,17 +1663,17 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1613,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1709,7 @@
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="86.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s">
         <v>28</v>
@@ -1814,36 +1886,51 @@
         <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
       <c r="AB5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
       <c r="AB6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>75</v>
+      </c>
       <c r="AB7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
       <c r="AB8" t="s">
         <v>41</v>
       </c>
@@ -1875,17 +1962,17 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB15" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="28:28" x14ac:dyDescent="0.25">

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ex3.1.3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -66,7 +66,7 @@
     <t>CODE_RX</t>
   </si>
   <si>
-    <t>GROUPER_PAR</t>
+    <t>RESULTATS_PAR</t>
   </si>
   <si>
     <t>CODE_SERV_FILTRE</t>
@@ -126,7 +126,7 @@
     <t>AD</t>
   </si>
   <si>
-    <t xml:space="preserve">    '2018-12-31' as DATE_FIN,</t>
+    <t xml:space="preserve">       '2018-12-31' as DATE_FIN,</t>
   </si>
   <si>
     <t>losartan potassique</t>
@@ -135,28 +135,28 @@
     <t>47135</t>
   </si>
   <si>
-    <t xml:space="preserve">    SMED_COD_DENOM_COMNE as DENOM,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sum(SMED_MNT_AUTOR_MED) as MNT_MED,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sum(SMED_MNT_AUTOR_FRAIS_SERV) as MNT_SERV,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sum(SMED_MNT_AUTOR_FRAIS_SERV + SMED_MNT_AUTOR_MED) as MNT_TOT,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    count(distinct SMED_NO_INDIV_BEN_BANLS) as COHORTE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    count(*) as NBRE_RX,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sum(SMED_QTE_MED) as QTE_MED,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sum(SMED_NBR_JR_DUREE_TRAIT) as DUREE_TX</t>
+    <t xml:space="preserve">       SMED_COD_DENOM_COMNE as DENOM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(SMED_MNT_AUTOR_MED) as MNT_MED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(SMED_MNT_AUTOR_FRAIS_SERV) as MNT_SERV,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(SMED_MNT_AUTOR_FRAIS_SERV + SMED_MNT_AUTOR_MED) as MNT_TOT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       count(distinct SMED_NO_INDIV_BEN_BANLS) as COHORTE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       count(*) as NBRE_RX,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(SMED_QTE_MED) as QTE_MED,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       sum(SMED_NBR_JR_DUREE_TRAIT) as DUREE_TX</t>
   </si>
   <si>
     <t>from PROD.V_DEM_PAIMT_MED_CM</t>
@@ -189,7 +189,7 @@
     <t>585092</t>
   </si>
   <si>
-    <t xml:space="preserve">    SMED_COD_DIN as DIN,</t>
+    <t xml:space="preserve">       SMED_COD_DIN as DIN,</t>
   </si>
   <si>
     <t xml:space="preserve">    and SMED_COD_DIN in (30848, 585092)</t>
@@ -216,7 +216,7 @@
     <t>47092; 47135; 48222</t>
   </si>
   <si>
-    <t xml:space="preserve">    '2017-12-31' as DATE_FIN,</t>
+    <t xml:space="preserve">       '2017-12-31' as DATE_FIN,</t>
   </si>
   <si>
     <t>48222</t>
@@ -237,22 +237,10 @@
     <t>40</t>
   </si>
   <si>
-    <t>L</t>
+    <t>L, M, M1 à M3</t>
   </si>
   <si>
     <t>41</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('47092', '47135')</t>
@@ -616,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,12 +624,12 @@
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1022,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,12 +1042,12 @@
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,12 +1388,12 @@
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1685,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,9 +1692,9 @@
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="86.5703125" bestFit="1" customWidth="1"/>
@@ -1904,33 +1892,21 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V5" t="s">
-        <v>73</v>
-      </c>
       <c r="AB5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V6" t="s">
-        <v>74</v>
-      </c>
       <c r="AB6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V7" t="s">
-        <v>75</v>
-      </c>
       <c r="AB7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V8" t="s">
-        <v>76</v>
-      </c>
       <c r="AB8" t="s">
         <v>41</v>
       </c>
@@ -1962,17 +1938,17 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="28:28" x14ac:dyDescent="0.25">

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-RÉSULTATS.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ex3.1.3" sheetId="1" r:id="rId1"/>
-    <sheet name="ex3.1.4" sheetId="2" r:id="rId2"/>
-    <sheet name="ex3.1.5" sheetId="3" r:id="rId3"/>
-    <sheet name="ex3.1.6" sheetId="4" r:id="rId4"/>
+    <sheet name="ex3.1.3.1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex3.1.3.2" sheetId="2" r:id="rId2"/>
+    <sheet name="ex3.1.3.3" sheetId="3" r:id="rId3"/>
+    <sheet name="ex3.1.3.4" sheetId="4" r:id="rId4"/>
+    <sheet name="ex3.1.3.5" sheetId="5" r:id="rId5"/>
+    <sheet name="ex3.1.3.6" sheetId="6" r:id="rId6"/>
+    <sheet name="ex3.1.3.7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="100">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -165,7 +168,7 @@
     <t>where SMED_DAT_SERV between '2018-01-01' and '2018-12-31'</t>
   </si>
   <si>
-    <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('39', '47092', '47135')</t>
+    <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('00039', '47092', '47135')</t>
   </si>
   <si>
     <t xml:space="preserve">    and (SMED_COD_SERV_1 not in ('1', 'AD') or SMED_COD_SERV_1 is null)</t>
@@ -228,7 +231,79 @@
     <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('47092', '47135', '48222')</t>
   </si>
   <si>
-    <t xml:space="preserve">    and (SMED_COD_SERV_1 not in ('1', 'AD') or SMED_COD_SERV_1 is null) ;</t>
+    <t xml:space="preserve">    and (SMED_COD_SERV_1 not in ('1', 'AD') or SMED_COD_SERV_1 is null);</t>
+  </si>
+  <si>
+    <t>TENEUR</t>
+  </si>
+  <si>
+    <t>53192</t>
+  </si>
+  <si>
+    <t>Teneur</t>
+  </si>
+  <si>
+    <t>30622</t>
+  </si>
+  <si>
+    <t>36234</t>
+  </si>
+  <si>
+    <t>41602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       SMED_COD_TENR_MED as TENEUR,</t>
+  </si>
+  <si>
+    <t>cabozantinib</t>
+  </si>
+  <si>
+    <t>28426</t>
+  </si>
+  <si>
+    <t>34160</t>
+  </si>
+  <si>
+    <t>38308</t>
+  </si>
+  <si>
+    <t>26474</t>
+  </si>
+  <si>
+    <t>group by DENOM, TENEUR;</t>
+  </si>
+  <si>
+    <t>FORMAT_ACQ</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       SMED_COD_FORMA_ACQ_MED as FORMAT_ACQ,</t>
+  </si>
+  <si>
+    <t>group by DENOM, FORMAT_ACQ;</t>
+  </si>
+  <si>
+    <t>44408</t>
+  </si>
+  <si>
+    <t>08333</t>
+  </si>
+  <si>
+    <t>8333</t>
+  </si>
+  <si>
+    <t>37088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and SMED_COD_DENOM_COMNE in ('08333', '47092')</t>
+  </si>
+  <si>
+    <t>group by TENEUR;</t>
   </si>
   <si>
     <t>03</t>
@@ -604,9 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1021,9 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1370,9 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1671,11 +1740,2117 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="75.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>47092</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>619965.36</v>
+      </c>
+      <c r="G2">
+        <v>134820.34</v>
+      </c>
+      <c r="H2">
+        <v>754785.7</v>
+      </c>
+      <c r="I2">
+        <v>1354</v>
+      </c>
+      <c r="J2">
+        <v>18909</v>
+      </c>
+      <c r="K2">
+        <v>386202</v>
+      </c>
+      <c r="L2">
+        <v>388316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>47135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>328293.02</v>
+      </c>
+      <c r="G3">
+        <v>528389.48</v>
+      </c>
+      <c r="H3">
+        <v>856682.5</v>
+      </c>
+      <c r="I3">
+        <v>5623</v>
+      </c>
+      <c r="J3">
+        <v>76277</v>
+      </c>
+      <c r="K3">
+        <v>1489375.5</v>
+      </c>
+      <c r="L3">
+        <v>1443496</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>47135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>925763.11</v>
+      </c>
+      <c r="G4">
+        <v>1268469.1599999999</v>
+      </c>
+      <c r="H4">
+        <v>2194232.27</v>
+      </c>
+      <c r="I4">
+        <v>12827</v>
+      </c>
+      <c r="J4">
+        <v>178257</v>
+      </c>
+      <c r="K4">
+        <v>3754190</v>
+      </c>
+      <c r="L4">
+        <v>3557919</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>47135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>706474.8</v>
+      </c>
+      <c r="G5">
+        <v>1048573</v>
+      </c>
+      <c r="H5">
+        <v>1755047.8</v>
+      </c>
+      <c r="I5">
+        <v>9941</v>
+      </c>
+      <c r="J5">
+        <v>150230</v>
+      </c>
+      <c r="K5">
+        <v>2910317</v>
+      </c>
+      <c r="L5">
+        <v>2903884</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>47092</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>576893.94999999995</v>
+      </c>
+      <c r="G6">
+        <v>126665.06</v>
+      </c>
+      <c r="H6">
+        <v>703559.01</v>
+      </c>
+      <c r="I6">
+        <v>1247</v>
+      </c>
+      <c r="J6">
+        <v>17827</v>
+      </c>
+      <c r="K6">
+        <v>360738</v>
+      </c>
+      <c r="L6">
+        <v>362826</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>47135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>319866.43</v>
+      </c>
+      <c r="G7">
+        <v>603231.92000000004</v>
+      </c>
+      <c r="H7">
+        <v>923098.35</v>
+      </c>
+      <c r="I7">
+        <v>6936</v>
+      </c>
+      <c r="J7">
+        <v>88785</v>
+      </c>
+      <c r="K7">
+        <v>1689743</v>
+      </c>
+      <c r="L7">
+        <v>1630053</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>47135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>797124.7</v>
+      </c>
+      <c r="G8">
+        <v>1370833.62</v>
+      </c>
+      <c r="H8">
+        <v>2167958.3199999998</v>
+      </c>
+      <c r="I8">
+        <v>15006</v>
+      </c>
+      <c r="J8">
+        <v>194934</v>
+      </c>
+      <c r="K8">
+        <v>4059153.5</v>
+      </c>
+      <c r="L8">
+        <v>3840338</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>47135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>609141.51</v>
+      </c>
+      <c r="G9">
+        <v>1133176.2</v>
+      </c>
+      <c r="H9">
+        <v>1742317.71</v>
+      </c>
+      <c r="I9">
+        <v>11584</v>
+      </c>
+      <c r="J9">
+        <v>163125</v>
+      </c>
+      <c r="K9">
+        <v>3143774.5</v>
+      </c>
+      <c r="L9">
+        <v>3136212</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>48222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <v>46860</v>
+      </c>
+      <c r="G10">
+        <v>45.89</v>
+      </c>
+      <c r="H10">
+        <v>46905.89</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>48222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>28116</v>
+      </c>
+      <c r="G11">
+        <v>28.08</v>
+      </c>
+      <c r="H11">
+        <v>28144.080000000002</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>48222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>131208</v>
+      </c>
+      <c r="G12">
+        <v>129.72</v>
+      </c>
+      <c r="H12">
+        <v>131337.72</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>420</v>
+      </c>
+      <c r="L12">
+        <v>420</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>47092</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>538942.56000000006</v>
+      </c>
+      <c r="G13">
+        <v>124316.34</v>
+      </c>
+      <c r="H13">
+        <v>663258.9</v>
+      </c>
+      <c r="I13">
+        <v>1184</v>
+      </c>
+      <c r="J13">
+        <v>17431</v>
+      </c>
+      <c r="K13">
+        <v>345836</v>
+      </c>
+      <c r="L13">
+        <v>347911</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>47135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>584.19000000000005</v>
+      </c>
+      <c r="G14">
+        <v>154.54</v>
+      </c>
+      <c r="H14">
+        <v>738.73</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>605</v>
+      </c>
+      <c r="L14">
+        <v>366</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>47135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>866507.75</v>
+      </c>
+      <c r="G15">
+        <v>682029.41</v>
+      </c>
+      <c r="H15">
+        <v>1548537.16</v>
+      </c>
+      <c r="I15">
+        <v>13031</v>
+      </c>
+      <c r="J15">
+        <v>100660</v>
+      </c>
+      <c r="K15">
+        <v>2396875.6</v>
+      </c>
+      <c r="L15">
+        <v>1777004</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>47135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <v>1220789.67</v>
+      </c>
+      <c r="G16">
+        <v>1273491.82</v>
+      </c>
+      <c r="H16">
+        <v>2494281.4900000002</v>
+      </c>
+      <c r="I16">
+        <v>19733</v>
+      </c>
+      <c r="J16">
+        <v>180811</v>
+      </c>
+      <c r="K16">
+        <v>3708982.15</v>
+      </c>
+      <c r="L16">
+        <v>3408231</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>47135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>951253.52</v>
+      </c>
+      <c r="G17">
+        <v>1148561.95</v>
+      </c>
+      <c r="H17">
+        <v>2099815.4700000002</v>
+      </c>
+      <c r="I17">
+        <v>15887</v>
+      </c>
+      <c r="J17">
+        <v>163980</v>
+      </c>
+      <c r="K17">
+        <v>2969847.3</v>
+      </c>
+      <c r="L17">
+        <v>3066425</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>48222</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>633564.30000000005</v>
+      </c>
+      <c r="G18">
+        <v>465.9</v>
+      </c>
+      <c r="H18">
+        <v>634030.19999999995</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>2040</v>
+      </c>
+      <c r="L18">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>48222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19">
+        <v>846787.4</v>
+      </c>
+      <c r="G19">
+        <v>845.94</v>
+      </c>
+      <c r="H19">
+        <v>847633.34</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>2714</v>
+      </c>
+      <c r="L19">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>48222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>889273.8</v>
+      </c>
+      <c r="G20">
+        <v>871.03</v>
+      </c>
+      <c r="H20">
+        <v>890144.83</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>95</v>
+      </c>
+      <c r="K20">
+        <v>2850</v>
+      </c>
+      <c r="L20">
+        <v>2914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="75.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>47092</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>619965.36</v>
+      </c>
+      <c r="G2">
+        <v>134820.34</v>
+      </c>
+      <c r="H2">
+        <v>754785.7</v>
+      </c>
+      <c r="I2">
+        <v>1354</v>
+      </c>
+      <c r="J2">
+        <v>18909</v>
+      </c>
+      <c r="K2">
+        <v>386202</v>
+      </c>
+      <c r="L2">
+        <v>388316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>47135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>1180571.6200000001</v>
+      </c>
+      <c r="G3">
+        <v>1429364.5</v>
+      </c>
+      <c r="H3">
+        <v>2609936.12</v>
+      </c>
+      <c r="I3">
+        <v>15651</v>
+      </c>
+      <c r="J3">
+        <v>193955</v>
+      </c>
+      <c r="K3">
+        <v>4242377</v>
+      </c>
+      <c r="L3">
+        <v>4113703</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>47135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>779959.31</v>
+      </c>
+      <c r="G4">
+        <v>1416067.14</v>
+      </c>
+      <c r="H4">
+        <v>2196026.4500000002</v>
+      </c>
+      <c r="I4">
+        <v>15248</v>
+      </c>
+      <c r="J4">
+        <v>210809</v>
+      </c>
+      <c r="K4">
+        <v>3911505.5</v>
+      </c>
+      <c r="L4">
+        <v>3791596</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>47092</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>576893.94999999995</v>
+      </c>
+      <c r="G5">
+        <v>126665.06</v>
+      </c>
+      <c r="H5">
+        <v>703559.01</v>
+      </c>
+      <c r="I5">
+        <v>1247</v>
+      </c>
+      <c r="J5">
+        <v>17827</v>
+      </c>
+      <c r="K5">
+        <v>360738</v>
+      </c>
+      <c r="L5">
+        <v>362826</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>47135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>935138.09</v>
+      </c>
+      <c r="G6">
+        <v>1496842.61</v>
+      </c>
+      <c r="H6">
+        <v>2431980.7000000002</v>
+      </c>
+      <c r="I6">
+        <v>18421</v>
+      </c>
+      <c r="J6">
+        <v>207022</v>
+      </c>
+      <c r="K6">
+        <v>4405960</v>
+      </c>
+      <c r="L6">
+        <v>4271876</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>47135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>790994.55</v>
+      </c>
+      <c r="G7">
+        <v>1610399.13</v>
+      </c>
+      <c r="H7">
+        <v>2401393.6800000002</v>
+      </c>
+      <c r="I7">
+        <v>20027</v>
+      </c>
+      <c r="J7">
+        <v>239822</v>
+      </c>
+      <c r="K7">
+        <v>4486711</v>
+      </c>
+      <c r="L7">
+        <v>4334727</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>48222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>206184</v>
+      </c>
+      <c r="G8">
+        <v>203.69</v>
+      </c>
+      <c r="H8">
+        <v>206387.69</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>660</v>
+      </c>
+      <c r="L8">
+        <v>660</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>47092</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>538942.56000000006</v>
+      </c>
+      <c r="G9">
+        <v>124316.34</v>
+      </c>
+      <c r="H9">
+        <v>663258.9</v>
+      </c>
+      <c r="I9">
+        <v>1184</v>
+      </c>
+      <c r="J9">
+        <v>17431</v>
+      </c>
+      <c r="K9">
+        <v>345836</v>
+      </c>
+      <c r="L9">
+        <v>347911</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>47135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>22116.25</v>
+      </c>
+      <c r="H10">
+        <v>22116.25</v>
+      </c>
+      <c r="I10">
+        <v>1325</v>
+      </c>
+      <c r="J10">
+        <v>1341</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>47135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1861847.16</v>
+      </c>
+      <c r="G11">
+        <v>1494175.72</v>
+      </c>
+      <c r="H11">
+        <v>3356022.88</v>
+      </c>
+      <c r="I11">
+        <v>25673</v>
+      </c>
+      <c r="J11">
+        <v>208560</v>
+      </c>
+      <c r="K11">
+        <v>4360363.8</v>
+      </c>
+      <c r="L11">
+        <v>4099872</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>47135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>1177287.97</v>
+      </c>
+      <c r="G12">
+        <v>1587945.75</v>
+      </c>
+      <c r="H12">
+        <v>2765233.72</v>
+      </c>
+      <c r="I12">
+        <v>25241</v>
+      </c>
+      <c r="J12">
+        <v>235576</v>
+      </c>
+      <c r="K12">
+        <v>4715946.25</v>
+      </c>
+      <c r="L12">
+        <v>4152154</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>48222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>2272397.6</v>
+      </c>
+      <c r="G13">
+        <v>2121.0500000000002</v>
+      </c>
+      <c r="H13">
+        <v>2274518.65</v>
+      </c>
+      <c r="I13">
+        <v>59</v>
+      </c>
+      <c r="J13">
+        <v>224</v>
+      </c>
+      <c r="K13">
+        <v>7274</v>
+      </c>
+      <c r="L13">
+        <v>7109</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>48222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>97227.9</v>
+      </c>
+      <c r="G14">
+        <v>61.82</v>
+      </c>
+      <c r="H14">
+        <v>97289.72</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>330</v>
+      </c>
+      <c r="L14">
+        <v>210</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="75.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>18028.759999999998</v>
+      </c>
+      <c r="E2">
+        <v>16118.94</v>
+      </c>
+      <c r="F2">
+        <v>34147.699999999997</v>
+      </c>
+      <c r="G2">
+        <v>1536</v>
+      </c>
+      <c r="H2">
+        <v>1809</v>
+      </c>
+      <c r="I2">
+        <v>14705.45</v>
+      </c>
+      <c r="J2">
+        <v>20741</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>619965.36</v>
+      </c>
+      <c r="E3">
+        <v>134820.34</v>
+      </c>
+      <c r="F3">
+        <v>754785.7</v>
+      </c>
+      <c r="G3">
+        <v>1354</v>
+      </c>
+      <c r="H3">
+        <v>18909</v>
+      </c>
+      <c r="I3">
+        <v>386202</v>
+      </c>
+      <c r="J3">
+        <v>388316</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>2847.36</v>
+      </c>
+      <c r="E4">
+        <v>2312.1799999999998</v>
+      </c>
+      <c r="F4">
+        <v>5159.54</v>
+      </c>
+      <c r="G4">
+        <v>231</v>
+      </c>
+      <c r="H4">
+        <v>257</v>
+      </c>
+      <c r="I4">
+        <v>6173.6</v>
+      </c>
+      <c r="J4">
+        <v>3037</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>27535.35</v>
+      </c>
+      <c r="E5">
+        <v>24282.3</v>
+      </c>
+      <c r="F5">
+        <v>51817.65</v>
+      </c>
+      <c r="G5">
+        <v>2305</v>
+      </c>
+      <c r="H5">
+        <v>2738</v>
+      </c>
+      <c r="I5">
+        <v>23098</v>
+      </c>
+      <c r="J5">
+        <v>31286</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>576893.94999999995</v>
+      </c>
+      <c r="E6">
+        <v>126665.06</v>
+      </c>
+      <c r="F6">
+        <v>703559.01</v>
+      </c>
+      <c r="G6">
+        <v>1247</v>
+      </c>
+      <c r="H6">
+        <v>17827</v>
+      </c>
+      <c r="I6">
+        <v>360738</v>
+      </c>
+      <c r="J6">
+        <v>362826</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>4266.05</v>
+      </c>
+      <c r="E7">
+        <v>2633.45</v>
+      </c>
+      <c r="F7">
+        <v>6899.5</v>
+      </c>
+      <c r="G7">
+        <v>253</v>
+      </c>
+      <c r="H7">
+        <v>285</v>
+      </c>
+      <c r="I7">
+        <v>7154.8</v>
+      </c>
+      <c r="J7">
+        <v>3587</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>35615.800000000003</v>
+      </c>
+      <c r="E8">
+        <v>31312.46</v>
+      </c>
+      <c r="F8">
+        <v>66928.259999999995</v>
+      </c>
+      <c r="G8">
+        <v>2907</v>
+      </c>
+      <c r="H8">
+        <v>3433</v>
+      </c>
+      <c r="I8">
+        <v>29860.55</v>
+      </c>
+      <c r="J8">
+        <v>42346</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>538942.56000000006</v>
+      </c>
+      <c r="E9">
+        <v>124316.34</v>
+      </c>
+      <c r="F9">
+        <v>663258.9</v>
+      </c>
+      <c r="G9">
+        <v>1184</v>
+      </c>
+      <c r="H9">
+        <v>17431</v>
+      </c>
+      <c r="I9">
+        <v>345836</v>
+      </c>
+      <c r="J9">
+        <v>347911</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1827,7 +4002,7 @@
         <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="AB2" t="s">
         <v>28</v>
@@ -1874,7 +4049,7 @@
         <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AB3" t="s">
         <v>34</v>
@@ -1882,10 +4057,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="V4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
         <v>37</v>
@@ -1938,17 +4113,17 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB14" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB16" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="28:28" x14ac:dyDescent="0.25">
